--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1442275.010626074</v>
+        <v>1480626.026678631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6584002.07223384</v>
+        <v>6612300.890753021</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>329.9041245198146</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>196.6300269142257</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>113.9317423114082</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>232.8937423524631</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>32.36127543482754</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>308.1332599358623</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.3727203283446</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820243</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1534,19 +1534,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>167.0321597791028</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170447</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283464</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>351.0749436432769</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>20.28369113775142</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>181.0082724298597</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>222.7230087310196</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629683</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800308</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>28.4682460490445</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340024</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800578</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522577</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>35.34780583513542</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3004,10 +3004,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3187,10 +3187,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225831</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>212.1244644296954</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>28.46824604904448</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225779</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>209.985159478203</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3791,13 +3791,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517358539</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783088918</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3898,10 +3898,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>105.6319392430751</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3958,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068455</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3989,13 +3989,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283466</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.08339867820236</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>105.2666242787496</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4144,16 +4144,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>140.265305225936</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>973.2914446740356</v>
       </c>
       <c r="C2" t="n">
-        <v>1321.524944633169</v>
+        <v>939.1893758978629</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>503.2795910723074</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>69.50484623060255</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>437.0247332457074</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1568.238183299066</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2114.73696925766</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194554</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067593</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067593</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1617.554983001419</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1418.938794199171</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1403.836734818886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>995.5506111185393</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400187</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067194</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>485.7428345149554</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1384727187784</v>
+        <v>1036.076032066771</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>863.5143205499959</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>697.6363277515186</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>527.8783240022559</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>351.1712699640121</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>185.5799949898398</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>463.8877024481754</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>923.3715696290885</v>
       </c>
       <c r="N4" t="n">
-        <v>1148.807921062551</v>
+        <v>1365.630372786733</v>
       </c>
       <c r="O4" t="n">
-        <v>1568.477170288332</v>
+        <v>1768.191365176044</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.698259146385</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716089</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2103.231844014086</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1857.352397592541</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1742.269829601219</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1455.31432147165</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>1455.31432147165</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>1455.31432147165</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9570914377655</v>
+        <v>1227.894650785758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>763.0287521501519</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C5" t="n">
-        <v>728.9266833739794</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>697.057302588828</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X5" t="n">
-        <v>789.5336382545983</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946557</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1343.515716940192</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>914.93404267746</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>1385.937712973486</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>1385.122662424923</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>1370.020603044638</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1365.774883384695</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168565</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351988</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526433</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847276</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939354</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940403</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510709</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344105</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.6447693027</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112632</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429649</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363475</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774508</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353819</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.229814098727</v>
+        <v>998.0484328177149</v>
       </c>
       <c r="C13" t="n">
-        <v>633.668102581952</v>
+        <v>825.48672130094</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834747</v>
+        <v>659.6087285024627</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342119</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959681</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111513</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5227,7 +5227,7 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
         <v>2029.841770713472</v>
@@ -5239,10 +5239,10 @@
         <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177142</v>
+        <v>998.0484328177149</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847292</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146349</v>
+        <v>516.962436093937</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111513</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>3140.966316773799</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>3140.966316773799</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>4121.145983344105</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344105</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.6447693027</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239594</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239594</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.92465755661</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490437</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>837.6411508020492</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>671.7631580035719</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111513</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111513</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2512.247819680463</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2233.814818933568</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1946.859310803999</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1674.832906390291</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1429.441151723703</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.805766429521</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945684</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548914</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781553</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137158</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742894</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.965062700365</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953225</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953225</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953225</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523531</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356927</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315522</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252416</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125455</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442472</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.389378624432</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.533924035465</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.391460614776</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.105336914428</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126643</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493066</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958599</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228136</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389752</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051591</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818292</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480415</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132067</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924275</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983026</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815278</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830505</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337877</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955439</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137158</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137158</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860614</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251581</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489498</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324172</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324172</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859942</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113047</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983478</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569769</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903182</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771591</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883921</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716171</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731397</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6014,25 +6014,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903952</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736202</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751429</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258801</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876363</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.500009313464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883918</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716167</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731394</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238766</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.754677688392</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716169</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731397</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>473.3149733731397</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>296.6079193348959</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>131.0166443607235</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477115</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309365</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324589</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962456</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419178</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1242.860678770076</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066699</v>
+        <v>1015.441008084184</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911532</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.0004182694</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427695</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369031</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601669</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033832</v>
+        <v>97.15276605397514</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305232</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834411</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163863</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163863</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734169</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567566</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.67342652616</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.67342652616</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552709997</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.475540855599</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172616</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106442</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218159</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584583</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050115</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319652</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481268</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143107</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305232</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909808</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571931</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850284</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583478</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223583</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015791</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>947.730853355511</v>
+        <v>947.2320137580462</v>
       </c>
       <c r="C43" t="n">
-        <v>947.730853355511</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271524</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778896</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396458</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654734</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558479</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305232</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952131</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663486</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343097</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598648</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.88030356899</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.655257138695</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.77581071715</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.342809970256</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V43" t="n">
-        <v>1884.387301840686</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W43" t="n">
-        <v>1612.360897426978</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1366.96914276039</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>1139.549472074498</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939373</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7658,40 +7658,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1052.109260520273</v>
+        <v>870.3006880091987</v>
       </c>
       <c r="C46" t="n">
-        <v>879.5475490034975</v>
+        <v>697.7389764924236</v>
       </c>
       <c r="D46" t="n">
-        <v>713.6695562050202</v>
+        <v>531.8609836939463</v>
       </c>
       <c r="E46" t="n">
-        <v>543.9115524557574</v>
+        <v>362.1029799446836</v>
       </c>
       <c r="F46" t="n">
-        <v>402.2294259649129</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J46" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169404</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849015</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M46" t="n">
         <v>1335.767865365814</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T46" t="n">
-        <v>2554.154217881911</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="U46" t="n">
-        <v>2275.721217135017</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V46" t="n">
-        <v>1988.765709005447</v>
+        <v>1721.468441289275</v>
       </c>
       <c r="W46" t="n">
-        <v>1716.739304591739</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X46" t="n">
-        <v>1471.347549925151</v>
+        <v>1204.050282208979</v>
       </c>
       <c r="Y46" t="n">
-        <v>1243.92787923926</v>
+        <v>976.6306115230871</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709911</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.34648051320318</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>406.6272650397075</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0063230223086</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>706.6317115441702</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,7 +9164,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657334</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226106</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>268.0111327346241</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.73195639979893</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.028263932667323</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>49.73195639980008</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.1369608195779</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.104494779778828e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>177.982508135652</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627249</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>61.36294431725425</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.719513420539442e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>30.81337269022628</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>110.0349065174847</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>32.95267764171865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311983786</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>268.0111327346225</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>58.58727362741742</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>268.0111327346221</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.731956399799</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>84.63380825304768</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.67467827192533</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>560675.9062718132</v>
+        <v>566692.8001719986</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>560675.9062718132</v>
+        <v>570653.1079179471</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>560675.9062718132</v>
+        <v>570653.1079179471</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557102.7060495944</v>
+        <v>557102.7060495946</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557102.7060495944</v>
+        <v>557102.7060495946</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>564963.9670429536</v>
+        <v>580613.0768561926</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580613.0768561924</v>
+        <v>580613.0768561926</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>580613.0768561923</v>
+        <v>580613.0768561924</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>572751.8158628335</v>
+        <v>557102.7060495946</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557102.7060495946</v>
+        <v>557102.7060495948</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>379142.9234787571</v>
+        <v>379142.9234787573</v>
       </c>
       <c r="F2" t="n">
         <v>379142.9234787571</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.9988650116</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030142</v>
@@ -26344,16 +26344,16 @@
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>389793.1127167598</v>
+        <v>379142.9234787572</v>
       </c>
       <c r="P2" t="n">
-        <v>379142.9234787572</v>
+        <v>379142.9234787571</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745914</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220372</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042852287</v>
+        <v>18928.52796216484</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996165</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>149391.596425675</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393336</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>166144.7923478712</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
         <v>52352.49019908698</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908697</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="G4" t="n">
-        <v>53091.2347512821</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962281</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
@@ -26445,19 +26445,19 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>53823.08055742765</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908698</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.7437169629</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.3448002424</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319763</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6797.721469709708</v>
+        <v>-23723.14989472122</v>
       </c>
       <c r="C6" t="n">
-        <v>148989.0221294196</v>
+        <v>148697.7361728004</v>
       </c>
       <c r="D6" t="n">
-        <v>148989.0221294196</v>
+        <v>179887.7711102595</v>
       </c>
       <c r="E6" t="n">
-        <v>18916.06897998543</v>
+        <v>91459.45723711162</v>
       </c>
       <c r="F6" t="n">
-        <v>253271.0910020226</v>
+        <v>253194.5324472259</v>
       </c>
       <c r="G6" t="n">
-        <v>250149.2082706348</v>
+        <v>243911.3720860515</v>
       </c>
       <c r="H6" t="n">
-        <v>250460.3694076372</v>
+        <v>262839.9000482163</v>
       </c>
       <c r="I6" t="n">
-        <v>262863.1243875989</v>
+        <v>262839.9000482163</v>
       </c>
       <c r="J6" t="n">
-        <v>151848.6590426087</v>
+        <v>113448.3036225412</v>
       </c>
       <c r="K6" t="n">
-        <v>262863.1243875989</v>
+        <v>237992.9632642829</v>
       </c>
       <c r="L6" t="n">
-        <v>262863.1243875989</v>
+        <v>262839.9000482163</v>
       </c>
       <c r="M6" t="n">
-        <v>67261.94510453136</v>
+        <v>127849.9554352129</v>
       </c>
       <c r="N6" t="n">
-        <v>262863.1243875989</v>
+        <v>262839.9000482163</v>
       </c>
       <c r="O6" t="n">
-        <v>259655.7960761346</v>
+        <v>253194.5324472259</v>
       </c>
       <c r="P6" t="n">
-        <v>253271.0910020227</v>
+        <v>253194.5324472259</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -26802,7 +26802,7 @@
         <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267145</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.16835663154</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938348</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320534</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="H4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938346</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320534</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="P4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27379,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>103.8569235685964</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>204.1768731288513</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.7169284280175</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>196.5432550408247</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,13 +27673,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>326.6295051306842</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>50.45407964317427</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,7 +27910,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>50.85752062964946</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>63.43016517136708</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709911</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.34648051320318</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>406.6272650397075</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0063230223086</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,22 +35653,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>706.6317115441702</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657334</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,19 +37078,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226106</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
